--- a/data/trans_bre/P25_1-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_1-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-1,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-0,52</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>-3,13</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-21,57%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,43%</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-5,65%</t>
+          <t>-20,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>-3,51%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-3,72%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-5,81%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>-25,84%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-18,2%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 0,87</t>
+          <t>-5,62; 1,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 2,31</t>
+          <t>-3,06; 2,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 2,51</t>
+          <t>-2,91; 2,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 0,7</t>
+          <t>-4,24; 2,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-50,18; 11,89</t>
+          <t>-6,67; 0,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-33,59; 40,21</t>
+          <t>-5,82; 1,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-35,53; 40,65</t>
+          <t>-48,27; 14,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-48,84; 7,97</t>
+          <t>-35,49; 36,19</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-31,5; 40,64</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-39,19; 42,83</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-49,65; 6,07</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-39,65; 11,62</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,15</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>68,32%</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,81%</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>44,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-12,59%</t>
+          <t>-8,7%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8,45%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-12,63%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>23,88%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,16; 7,73</t>
+          <t>-0,45; 5,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 2,51</t>
+          <t>-3,63; 2,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 3,6</t>
+          <t>-2,85; 2,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,23; 4,53</t>
+          <t>-3,6; 4,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 191,98</t>
+          <t>-6,04; 4,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,15; 50,88</t>
+          <t>-3,27; 9,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-29,02; 68,69</t>
+          <t>-8,47; 130,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-55,63; 71,63</t>
+          <t>-44,26; 45,19</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-33,89; 52,07</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-35,0; 67,95</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-54,31; 80,84</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-24,83; 112,62</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,86</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>3,67</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>4,5</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-22,9%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-21,42%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>63,87%</t>
+          <t>-0,56%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-18,74%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>59,95%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>49,43%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,48; 5,93</t>
+          <t>-9,52; 8,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 4,23</t>
+          <t>-8,32; 4,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 9,94</t>
+          <t>-2,5; 9,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-3,43; 14,14</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-68,08; 62,39</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-66,86; 76,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-30,86; 301,19</t>
+          <t>-52,66; 109,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-64,46; 78,17</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-40,65; 279,07</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-34,62; 230,31</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,63</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-5,93%</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-23,09%</t>
+          <t>-7,63%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5,32%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6,1%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-23,1%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-9,54%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 2,56</t>
+          <t>-2,29; 2,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,44</t>
+          <t>-2,39; 1,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 2,24</t>
+          <t>-1,54; 2,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 0,45</t>
+          <t>-1,97; 2,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,48; 34,48</t>
+          <t>-5,96; 0,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,82; 24,42</t>
+          <t>-4,3; 1,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,65; 37,19</t>
+          <t>-23,74; 31,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-44,35; 6,49</t>
+          <t>-30,29; 22,65</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-19,79; 39,35</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-20,59; 38,13</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-45,29; 4,6</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-31,42; 17,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25_1-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_1-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,92</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,25</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,52</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-3,13</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-2,28</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-20,52%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-3,51%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-3,72%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-5,81%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-25,84%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-18,2%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.05197251670899</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.186120787898314</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.3949545834849508</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.4542824863160502</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-3.133042391330899</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-2.25476078277506</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.2251810301634458</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.02628156404288651</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.05114962312137181</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.05064578635554022</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.2584117438986602</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.1806913430746582</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,62; 1,07</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,06; 2,19</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-2,91; 2,52</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-4,24; 2,89</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-6,67; 0,62</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-5,82; 1,21</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-48,27; 14,39</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-35,49; 36,19</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-31,5; 40,64</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-39,19; 42,83</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-49,65; 6,07</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-39,65; 11,62</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.842823094850176</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.985838279732994</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.015410583310647</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-4.235817476017763</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-6.667299645588437</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-5.736419969700098</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.5014615967836208</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.3538073038119139</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.3238178045883479</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.3966001383205378</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.4965063401762045</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.3957735420303633</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.9443501484939261</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.300720822143677</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.400848366617913</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>3.156434381338576</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.6238635977965525</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.279182729125726</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.1410147087629633</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.3878427299625232</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.393315679720638</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.4663902090893622</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.06066721569218105</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.1202006509118496</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,6</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,57</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,72</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-1,16</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,63</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>44,96%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-8,7%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>3,06%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>8,45%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-12,63%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>23,88%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-0,45; 5,96</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,63; 2,28</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-2,85; 2,98</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,6; 4,84</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-6,04; 4,7</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-3,27; 9,38</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-8,47; 130,93</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-44,26; 45,19</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-33,89; 52,07</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-35,0; 67,95</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-54,31; 80,84</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-24,83; 112,62</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>4.327401153467634</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.3388049656289457</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.2967763923821601</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>1.049892828296252</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-1.155947049131065</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>2.631733965806124</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.8010211697600538</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.0537363689586369</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.04409147865759069</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.1284564734665305</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>-0.1262757264475845</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.2368671406286749</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,72</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,67</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,5</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-0,56%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-18,74%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>59,95%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>49,43%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1.060644669263103</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.403992901079016</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-2.656162490676575</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-3.117663179864119</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-6.037964585200296</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-3.390061503594734</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.1174568972603522</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.4179269362653344</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3290742281858407</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.326987185364082</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.5431022927383965</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.2550690197403648</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,52; 8,58</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,32; 4,1</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,5; 9,97</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,43; 14,14</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-52,66; 109,86</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-64,46; 78,17</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-40,65; 279,07</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-34,62; 230,31</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.146149688162106</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.499098742321488</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.01107151395157</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.057171068733473</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>4.704093237962854</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>9.45948397213993</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.983297234203966</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.5150232990528232</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.5488188859591533</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.7604490020119316</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.8083731992099277</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>1.158327486863431</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,55</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-2,64</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-1,16</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,54%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-7,63%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>5,32%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>6,1%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-23,1%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-9,54%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>-4.264404459478042</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.537719330787471</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.037156183197386</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>4.538239979957334</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>-0.2600007817583593</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.1674140344744855</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.7086668080929148</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.492174650798237</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,29; 2,32</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,39; 1,42</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,54; 2,34</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-1,97; 2,98</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-5,96; 0,46</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-4,3; 1,76</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-23,74; 31,54</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-30,29; 22,65</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-19,79; 39,35</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-20,59; 38,13</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-45,29; 4,6</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-31,42; 17,69</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-16.45164484767099</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.24072139567466</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.406954889286202</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-3.454741332471071</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.6824442506859496</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.6340951801539023</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.2526214868877486</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.3507952896419715</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>5.099376366845987</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.6470291886602</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10.34884442602316</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>14.02145726742595</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>0.6404865013337546</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.8324699201435052</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>3.518641625259145</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>2.339433072242404</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.1384387351275218</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.4008207945223413</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.409826709045237</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.7067822457737238</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-2.635581521348319</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>-1.14381252077014</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.01623462193101504</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.05702436792919979</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.05791065141191698</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.08142430558758884</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.2309535442616773</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>-0.09417234724605779</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.554024993839046</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.300025537482383</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.477042982315521</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-1.841153744179347</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-5.957304281759555</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-4.313390149934829</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.2514823155352187</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.2887115504513668</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1884041310869486</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1871291592199503</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.4528840847502198</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.3196751857691426</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.80712276850785</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.580858811884236</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.378353629542112</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>3.183727960453311</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>0.4579130162647441</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>1.787363318339086</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.3795969745369758</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.2509300651571879</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.4086868019528945</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.399161188546266</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.0459649752668352</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.1690918215935292</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
